--- a/vanguard/vg_funds_holdings_clean_data/09-30-2023_VGSH_holdings_data_clean.xlsx
+++ b/vanguard/vg_funds_holdings_clean_data/09-30-2023_VGSH_holdings_data_clean.xlsx
@@ -3343,7 +3343,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3353,12 +3353,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>173101346</t>
+          <t>238329615</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2.875</t>
+          <t>4.250</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>179758000</t>
+          <t>241959000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3378,12 +3378,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>US9128284R87</t>
+          <t>US91282CHD65</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3396,12 +3396,12 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>9128284R8</t>
+          <t>91282CHD6</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>BD5J3M5</t>
+          <t>BP489V8</t>
         </is>
       </c>
     </row>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>238329615</t>
+          <t>173101346</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>4.250</t>
+          <t>2.875</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>241959000</t>
+          <t>179758000</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3458,12 +3458,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>US91282CHD65</t>
+          <t>US9128284R87</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3476,12 +3476,12 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>91282CHD6</t>
+          <t>9128284R8</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>BP489V8</t>
+          <t>BD5J3M5</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3673,12 +3673,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>93684480</t>
+          <t>313047451</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2.750</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>97588000</t>
+          <t>340674000</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3698,12 +3698,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>US912828XZ81</t>
+          <t>US912828ZW33</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3716,12 +3716,12 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>912828XZ8</t>
+          <t>912828ZW3</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>BD9MJH7</t>
+          <t>BL5BXQ1</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3753,12 +3753,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>313047451</t>
+          <t>93684480</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>2.750</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>340674000</t>
+          <t>97588000</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3778,12 +3778,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>US912828ZW33</t>
+          <t>US912828XZ81</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3796,12 +3796,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>912828ZW3</t>
+          <t>912828XZ8</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>BL5BXQ1</t>
+          <t>BD9MJH7</t>
         </is>
       </c>
     </row>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3993,12 +3993,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>155747092</t>
+          <t>288265103</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2.875</t>
+          <t>4.750</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>162131000</t>
+          <t>290215000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -4018,12 +4018,12 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>US912828Y792</t>
+          <t>US91282CHN48</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -4036,12 +4036,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>912828Y79</t>
+          <t>91282CHN4</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>BFNQWY7</t>
+          <t>BNTDWY8</t>
         </is>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4073,12 +4073,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>288265103</t>
+          <t>155747092</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>4.750</t>
+          <t>2.875</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>290215000</t>
+          <t>162131000</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -4098,12 +4098,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>US91282CHN48</t>
+          <t>US912828Y792</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4116,12 +4116,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>91282CHN4</t>
+          <t>912828Y79</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>BNTDWY8</t>
+          <t>BFNQWY7</t>
         </is>
       </c>
     </row>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4153,12 +4153,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>312741076</t>
+          <t>376122714</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>3.125</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>324189000</t>
+          <t>398211000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -4178,12 +4178,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>US91282CFE66</t>
+          <t>US912828K742</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -4196,12 +4196,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>91282CFE6</t>
+          <t>912828K74</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>BQHM4C0</t>
+          <t>BYS2RD7</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>376122714</t>
+          <t>312741076</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2.000</t>
+          <t>3.125</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>398211000</t>
+          <t>324189000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -4258,12 +4258,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>US912828K742</t>
+          <t>US91282CFE66</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -4276,12 +4276,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>912828K74</t>
+          <t>91282CFE6</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>BYS2RD7</t>
+          <t>BQHM4C0</t>
         </is>
       </c>
     </row>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>143827951</t>
+          <t>309979556</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2.750</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>150261000</t>
+          <t>339820000</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>US9128284Z04</t>
+          <t>US91282CAJ09</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4516,12 +4516,12 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>9128284Z0</t>
+          <t>91282CAJ0</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>BG0MNF3</t>
+          <t>BMV9TX5</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4553,12 +4553,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>309979556</t>
+          <t>143827951</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>2.750</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>339820000</t>
+          <t>150261000</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4578,12 +4578,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>US91282CAJ09</t>
+          <t>US9128284Z04</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -4596,12 +4596,12 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>91282CAJ0</t>
+          <t>9128284Z0</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>BMV9TX5</t>
+          <t>BG0MNF3</t>
         </is>
       </c>
     </row>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4793,12 +4793,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>163836000</t>
+          <t>332317160</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>3.000</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>170496000</t>
+          <t>332629000</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4818,12 +4818,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>US9128285C00</t>
+          <t>US91282CJB81</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4836,12 +4836,12 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>9128285C0</t>
+          <t>91282CJB8</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>BFM0VV0</t>
+          <t>BMX7M61</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>332317160</t>
+          <t>163836000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>5.000</t>
+          <t>3.000</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>332629000</t>
+          <t>170496000</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4898,12 +4898,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>US91282CJB81</t>
+          <t>US9128285C00</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -4916,12 +4916,12 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>91282CJB8</t>
+          <t>9128285C0</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>BMX7M61</t>
+          <t>BFM0VV0</t>
         </is>
       </c>
     </row>

--- a/vanguard/vg_funds_holdings_clean_data/09-30-2023_VGSH_holdings_data_clean.xlsx
+++ b/vanguard/vg_funds_holdings_clean_data/09-30-2023_VGSH_holdings_data_clean.xlsx
@@ -3343,7 +3343,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3353,12 +3353,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>238329615</t>
+          <t>173101346</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>4.250</t>
+          <t>2.875</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>241959000</t>
+          <t>179758000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3378,12 +3378,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>US91282CHD65</t>
+          <t>US9128284R87</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3396,12 +3396,12 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>91282CHD6</t>
+          <t>9128284R8</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>BP489V8</t>
+          <t>BD5J3M5</t>
         </is>
       </c>
     </row>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>173101346</t>
+          <t>238329615</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2.875</t>
+          <t>4.250</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>179758000</t>
+          <t>241959000</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3458,12 +3458,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>US9128284R87</t>
+          <t>US91282CHD65</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -3476,12 +3476,12 @@
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>9128284R8</t>
+          <t>91282CHD6</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>BD5J3M5</t>
+          <t>BP489V8</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3673,12 +3673,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>313047451</t>
+          <t>93684480</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>2.750</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>340674000</t>
+          <t>97588000</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3698,12 +3698,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>US912828ZW33</t>
+          <t>US912828XZ81</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3716,12 +3716,12 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>912828ZW3</t>
+          <t>912828XZ8</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>BL5BXQ1</t>
+          <t>BD9MJH7</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3753,12 +3753,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>93684480</t>
+          <t>313047451</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>2.750</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>97588000</t>
+          <t>340674000</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3778,12 +3778,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>US912828XZ81</t>
+          <t>US912828ZW33</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3796,12 +3796,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>912828XZ8</t>
+          <t>912828ZW3</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>BD9MJH7</t>
+          <t>BL5BXQ1</t>
         </is>
       </c>
     </row>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3993,12 +3993,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>288265103</t>
+          <t>155747092</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>4.750</t>
+          <t>2.875</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>290215000</t>
+          <t>162131000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -4018,12 +4018,12 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>US91282CHN48</t>
+          <t>US912828Y792</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -4036,12 +4036,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>91282CHN4</t>
+          <t>912828Y79</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>BNTDWY8</t>
+          <t>BFNQWY7</t>
         </is>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4073,12 +4073,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>155747092</t>
+          <t>288265103</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>2.875</t>
+          <t>4.750</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>162131000</t>
+          <t>290215000</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -4098,12 +4098,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>US912828Y792</t>
+          <t>US91282CHN48</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4116,12 +4116,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>912828Y79</t>
+          <t>91282CHN4</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>BFNQWY7</t>
+          <t>BNTDWY8</t>
         </is>
       </c>
     </row>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4153,12 +4153,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>376122714</t>
+          <t>312741076</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2.000</t>
+          <t>3.125</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>398211000</t>
+          <t>324189000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -4178,12 +4178,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>US912828K742</t>
+          <t>US91282CFE66</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -4196,12 +4196,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>912828K74</t>
+          <t>91282CFE6</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>BYS2RD7</t>
+          <t>BQHM4C0</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>312741076</t>
+          <t>376122714</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>3.125</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>324189000</t>
+          <t>398211000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -4258,12 +4258,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>US91282CFE66</t>
+          <t>US912828K742</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -4276,12 +4276,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>91282CFE6</t>
+          <t>912828K74</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>BQHM4C0</t>
+          <t>BYS2RD7</t>
         </is>
       </c>
     </row>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>309979556</t>
+          <t>143827951</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>2.750</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>339820000</t>
+          <t>150261000</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>US91282CAJ09</t>
+          <t>US9128284Z04</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4516,12 +4516,12 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>91282CAJ0</t>
+          <t>9128284Z0</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>BMV9TX5</t>
+          <t>BG0MNF3</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4553,12 +4553,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>143827951</t>
+          <t>309979556</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>2.750</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>150261000</t>
+          <t>339820000</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4578,12 +4578,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>US9128284Z04</t>
+          <t>US91282CAJ09</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -4596,12 +4596,12 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>9128284Z0</t>
+          <t>91282CAJ0</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>BG0MNF3</t>
+          <t>BMV9TX5</t>
         </is>
       </c>
     </row>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4793,12 +4793,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>332317160</t>
+          <t>163836000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>5.000</t>
+          <t>3.000</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>332629000</t>
+          <t>170496000</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4818,12 +4818,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>US91282CJB81</t>
+          <t>US9128285C00</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4836,12 +4836,12 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>91282CJB8</t>
+          <t>9128285C0</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>BMX7M61</t>
+          <t>BFM0VV0</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>163836000</t>
+          <t>332317160</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>3.000</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>170496000</t>
+          <t>332629000</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4898,12 +4898,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>US9128285C00</t>
+          <t>US91282CJB81</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -4916,12 +4916,12 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>9128285C0</t>
+          <t>91282CJB8</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>BFM0VV0</t>
+          <t>BMX7M61</t>
         </is>
       </c>
     </row>

--- a/vanguard/vg_funds_holdings_clean_data/09-30-2023_VGSH_holdings_data_clean.xlsx
+++ b/vanguard/vg_funds_holdings_clean_data/09-30-2023_VGSH_holdings_data_clean.xlsx
@@ -1183,7 +1183,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>344137107</t>
+          <t>131680376</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4.500</t>
+          <t>2.125</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>347723000</t>
+          <t>136722000</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1218,12 +1218,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>US91282CFX48</t>
+          <t>US9128283J70</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1236,12 +1236,12 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>91282CFX4</t>
+          <t>9128283J7</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>BP4XYZ2</t>
+          <t>BF2W116</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1273,12 +1273,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>131680376</t>
+          <t>344137107</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.125</t>
+          <t>4.500</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>136722000</t>
+          <t>347723000</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>US9128283J70</t>
+          <t>US91282CFX48</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1316,12 +1316,12 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>9128283J7</t>
+          <t>91282CFX4</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>BF2W116</t>
+          <t>BP4XYZ2</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>200037307</t>
+          <t>204074450</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.750</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>209121000</t>
+          <t>211991000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1538,12 +1538,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>US912828YY08</t>
+          <t>US9128283P31</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1556,12 +1556,12 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>912828YY0</t>
+          <t>9128283P3</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>BKRM495</t>
+          <t>BFMVDZ1</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>204074450</t>
+          <t>200037307</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.250</t>
+          <t>1.750</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>211991000</t>
+          <t>209121000</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1618,12 +1618,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>US9128283P31</t>
+          <t>US912828YY08</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1636,12 +1636,12 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>9128283P3</t>
+          <t>912828YY0</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>BFMVDZ1</t>
+          <t>BKRM495</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>296514422</t>
+          <t>215102080</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4.125</t>
+          <t>2.500</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>301221000</t>
+          <t>223229000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1858,12 +1858,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>US91282CGG06</t>
+          <t>US9128283V09</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1876,12 +1876,12 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>91282CGG0</t>
+          <t>9128283V0</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>BL6BW29</t>
+          <t>BFMTY85</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>215102080</t>
+          <t>296514422</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>4.125</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>223229000</t>
+          <t>301221000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1938,12 +1938,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>US9128283V09</t>
+          <t>US91282CGG06</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1956,12 +1956,12 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>9128283V0</t>
+          <t>91282CGG0</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>BFMTY85</t>
+          <t>BL6BW29</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1993,12 +1993,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>365797664</t>
+          <t>340074547</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.000</t>
+          <t>1.500</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>382596000</t>
+          <t>358091000</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2018,12 +2018,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>US912828J272</t>
+          <t>US91282CDZ14</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2036,12 +2036,12 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>912828J27</t>
+          <t>91282CDZ1</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>BVVT3Q9</t>
+          <t>BM96PT6</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>340074547</t>
+          <t>365797664</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.500</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>358091000</t>
+          <t>382596000</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2098,12 +2098,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>US91282CDZ14</t>
+          <t>US912828J272</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2116,12 +2116,12 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>91282CDZ1</t>
+          <t>912828J27</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>BM96PT6</t>
+          <t>BVVT3Q9</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>313269740</t>
+          <t>96376028</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3.875</t>
+          <t>2.625</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>319663000</t>
+          <t>100196000</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2658,12 +2658,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>US91282CGU99</t>
+          <t>US9128284F40</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2676,12 +2676,12 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>91282CGU9</t>
+          <t>9128284F4</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>BRPT259</t>
+          <t>BYZNTH1</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2713,12 +2713,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>96376028</t>
+          <t>313269740</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2.625</t>
+          <t>3.875</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>100196000</t>
+          <t>319663000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2738,12 +2738,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>US9128284F40</t>
+          <t>US91282CGU99</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2756,12 +2756,12 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>9128284F4</t>
+          <t>91282CGU9</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>BYZNTH1</t>
+          <t>BRPT259</t>
         </is>
       </c>
     </row>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2953,12 +2953,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>299967337</t>
+          <t>181091861</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>2.875</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>323633000</t>
+          <t>187812000</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2978,12 +2978,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>US912828ZL77</t>
+          <t>US9128284M90</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2996,12 +2996,12 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>912828ZL7</t>
+          <t>9128284M9</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>BMWWQN2</t>
+          <t>BG44Z71</t>
         </is>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3033,12 +3033,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>181091861</t>
+          <t>299967337</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2.875</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>187812000</t>
+          <t>323633000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3058,12 +3058,12 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>US9128284M90</t>
+          <t>US912828ZL77</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3076,12 +3076,12 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>9128284M9</t>
+          <t>912828ZL7</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>BG44Z71</t>
+          <t>BMWWQN2</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3113,12 +3113,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>354908847</t>
+          <t>428360451</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2.125</t>
+          <t>2.750</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>372730000</t>
+          <t>445339000</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -3138,12 +3138,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>US912828XB14</t>
+          <t>US91282CEQ06</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -3156,12 +3156,12 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>912828XB1</t>
+          <t>91282CEQ0</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>BXC4FY9</t>
+          <t>BPSLLX9</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>428360451</t>
+          <t>354908847</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2.750</t>
+          <t>2.125</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>445339000</t>
+          <t>372730000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3218,12 +3218,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>US91282CEQ06</t>
+          <t>US912828XB14</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -3236,12 +3236,12 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>91282CEQ0</t>
+          <t>912828XB1</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>BPSLLX9</t>
+          <t>BXC4FY9</t>
         </is>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3273,12 +3273,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>266877281</t>
+          <t>173101346</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>2.875</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>289494000</t>
+          <t>179758000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3298,12 +3298,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>US912828ZT04</t>
+          <t>US9128284R87</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3316,12 +3316,12 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>912828ZT0</t>
+          <t>9128284R8</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>BLB6SL0</t>
+          <t>BD5J3M5</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3353,12 +3353,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>173101346</t>
+          <t>266877281</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2.875</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>179758000</t>
+          <t>289494000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3378,12 +3378,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>US9128284R87</t>
+          <t>US912828ZT04</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3396,12 +3396,12 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>9128284R8</t>
+          <t>912828ZT0</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>BD5J3M5</t>
+          <t>BLB6SL0</t>
         </is>
       </c>
     </row>

--- a/vanguard/vg_funds_holdings_clean_data/09-30-2023_VGSH_holdings_data_clean.xlsx
+++ b/vanguard/vg_funds_holdings_clean_data/09-30-2023_VGSH_holdings_data_clean.xlsx
@@ -1183,7 +1183,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>131680376</t>
+          <t>344137107</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.125</t>
+          <t>4.500</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>136722000</t>
+          <t>347723000</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1218,12 +1218,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>US9128283J70</t>
+          <t>US91282CFX48</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1236,12 +1236,12 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>9128283J7</t>
+          <t>91282CFX4</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>BF2W116</t>
+          <t>BP4XYZ2</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1273,12 +1273,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>344137107</t>
+          <t>131680376</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4.500</t>
+          <t>2.125</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>347723000</t>
+          <t>136722000</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>US91282CFX48</t>
+          <t>US9128283J70</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1316,12 +1316,12 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>91282CFX4</t>
+          <t>9128283J7</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>BP4XYZ2</t>
+          <t>BF2W116</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>204074450</t>
+          <t>200037307</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2.250</t>
+          <t>1.750</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>211991000</t>
+          <t>209121000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1538,12 +1538,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>US9128283P31</t>
+          <t>US912828YY08</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1556,12 +1556,12 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>9128283P3</t>
+          <t>912828YY0</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>BFMVDZ1</t>
+          <t>BKRM495</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>200037307</t>
+          <t>204074450</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.750</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>209121000</t>
+          <t>211991000</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1618,12 +1618,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>US912828YY08</t>
+          <t>US9128283P31</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1636,12 +1636,12 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>912828YY0</t>
+          <t>9128283P3</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>BKRM495</t>
+          <t>BFMVDZ1</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>215102080</t>
+          <t>296514422</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>4.125</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>223229000</t>
+          <t>301221000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1858,12 +1858,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>US9128283V09</t>
+          <t>US91282CGG06</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1876,12 +1876,12 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>9128283V0</t>
+          <t>91282CGG0</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>BFMTY85</t>
+          <t>BL6BW29</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>296514422</t>
+          <t>215102080</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4.125</t>
+          <t>2.500</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>301221000</t>
+          <t>223229000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1938,12 +1938,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>US91282CGG06</t>
+          <t>US9128283V09</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1956,12 +1956,12 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>91282CGG0</t>
+          <t>9128283V0</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>BL6BW29</t>
+          <t>BFMTY85</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1993,12 +1993,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>340074547</t>
+          <t>365797664</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.500</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>358091000</t>
+          <t>382596000</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2018,12 +2018,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>US91282CDZ14</t>
+          <t>US912828J272</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2036,12 +2036,12 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>91282CDZ1</t>
+          <t>912828J27</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>BM96PT6</t>
+          <t>BVVT3Q9</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>365797664</t>
+          <t>340074547</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2.000</t>
+          <t>1.500</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>382596000</t>
+          <t>358091000</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2098,12 +2098,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>US912828J272</t>
+          <t>US91282CDZ14</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2116,12 +2116,12 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>912828J27</t>
+          <t>91282CDZ1</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>BVVT3Q9</t>
+          <t>BM96PT6</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>96376028</t>
+          <t>313269740</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2.625</t>
+          <t>3.875</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>100196000</t>
+          <t>319663000</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2658,12 +2658,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>US9128284F40</t>
+          <t>US91282CGU99</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2676,12 +2676,12 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>9128284F4</t>
+          <t>91282CGU9</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>BYZNTH1</t>
+          <t>BRPT259</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2713,12 +2713,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>313269740</t>
+          <t>96376028</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3.875</t>
+          <t>2.625</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>319663000</t>
+          <t>100196000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2738,12 +2738,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>US91282CGU99</t>
+          <t>US9128284F40</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2756,12 +2756,12 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>91282CGU9</t>
+          <t>9128284F4</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>BRPT259</t>
+          <t>BYZNTH1</t>
         </is>
       </c>
     </row>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2953,12 +2953,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>181091861</t>
+          <t>299967337</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2.875</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>187812000</t>
+          <t>323633000</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2978,12 +2978,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>US9128284M90</t>
+          <t>US912828ZL77</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2996,12 +2996,12 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>9128284M9</t>
+          <t>912828ZL7</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>BG44Z71</t>
+          <t>BMWWQN2</t>
         </is>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3033,12 +3033,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>299967337</t>
+          <t>181091861</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>2.875</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>323633000</t>
+          <t>187812000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3058,12 +3058,12 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>US912828ZL77</t>
+          <t>US9128284M90</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3076,12 +3076,12 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>912828ZL7</t>
+          <t>9128284M9</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>BMWWQN2</t>
+          <t>BG44Z71</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3113,12 +3113,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>428360451</t>
+          <t>354908847</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2.750</t>
+          <t>2.125</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>445339000</t>
+          <t>372730000</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -3138,12 +3138,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>US91282CEQ06</t>
+          <t>US912828XB14</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -3156,12 +3156,12 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>91282CEQ0</t>
+          <t>912828XB1</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>BPSLLX9</t>
+          <t>BXC4FY9</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>354908847</t>
+          <t>428360451</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2.125</t>
+          <t>2.750</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>372730000</t>
+          <t>445339000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3218,12 +3218,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>US912828XB14</t>
+          <t>US91282CEQ06</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -3236,12 +3236,12 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>912828XB1</t>
+          <t>91282CEQ0</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>BXC4FY9</t>
+          <t>BPSLLX9</t>
         </is>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3273,12 +3273,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>173101346</t>
+          <t>266877281</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2.875</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>179758000</t>
+          <t>289494000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3298,12 +3298,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>US9128284R87</t>
+          <t>US912828ZT04</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3316,12 +3316,12 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>9128284R8</t>
+          <t>912828ZT0</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>BD5J3M5</t>
+          <t>BLB6SL0</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3353,12 +3353,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>266877281</t>
+          <t>173101346</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>2.875</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>289494000</t>
+          <t>179758000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3378,12 +3378,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>US912828ZT04</t>
+          <t>US9128284R87</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3396,12 +3396,12 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>912828ZT0</t>
+          <t>9128284R8</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>BLB6SL0</t>
+          <t>BD5J3M5</t>
         </is>
       </c>
     </row>

--- a/vanguard/vg_funds_holdings_clean_data/09-30-2023_VGSH_holdings_data_clean.xlsx
+++ b/vanguard/vg_funds_holdings_clean_data/09-30-2023_VGSH_holdings_data_clean.xlsx
@@ -1183,7 +1183,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>344137107</t>
+          <t>131680376</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4.500</t>
+          <t>2.125</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>347723000</t>
+          <t>136722000</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1218,12 +1218,12 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>US91282CFX48</t>
+          <t>US9128283J70</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1236,12 +1236,12 @@
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>91282CFX4</t>
+          <t>9128283J7</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>BP4XYZ2</t>
+          <t>BF2W116</t>
         </is>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1273,12 +1273,12 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>131680376</t>
+          <t>344137107</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2.125</t>
+          <t>4.500</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>136722000</t>
+          <t>347723000</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1298,12 +1298,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>US9128283J70</t>
+          <t>US91282CFX48</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1316,12 +1316,12 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>9128283J7</t>
+          <t>91282CFX4</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>BF2W116</t>
+          <t>BP4XYZ2</t>
         </is>
       </c>
     </row>
@@ -1503,7 +1503,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>200037307</t>
+          <t>204074450</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.750</t>
+          <t>2.250</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>209121000</t>
+          <t>211991000</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1538,12 +1538,12 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>US912828YY08</t>
+          <t>US9128283P31</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -1556,12 +1556,12 @@
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>912828YY0</t>
+          <t>9128283P3</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>BKRM495</t>
+          <t>BFMVDZ1</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>204074450</t>
+          <t>200037307</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2.250</t>
+          <t>1.750</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>211991000</t>
+          <t>209121000</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1618,12 +1618,12 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>US9128283P31</t>
+          <t>US912828YY08</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1636,12 +1636,12 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>9128283P3</t>
+          <t>912828YY0</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>BFMVDZ1</t>
+          <t>BKRM495</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>296514422</t>
+          <t>215102080</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4.125</t>
+          <t>2.500</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>301221000</t>
+          <t>223229000</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1858,12 +1858,12 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>US91282CGG06</t>
+          <t>US9128283V09</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1876,12 +1876,12 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>91282CGG0</t>
+          <t>9128283V0</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>BL6BW29</t>
+          <t>BFMTY85</t>
         </is>
       </c>
     </row>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1913,12 +1913,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>215102080</t>
+          <t>296514422</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.500</t>
+          <t>4.125</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>223229000</t>
+          <t>301221000</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1938,12 +1938,12 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>US9128283V09</t>
+          <t>US91282CGG06</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -1956,12 +1956,12 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>9128283V0</t>
+          <t>91282CGG0</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>BFMTY85</t>
+          <t>BL6BW29</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1993,12 +1993,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>365797664</t>
+          <t>340074547</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2.000</t>
+          <t>1.500</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>382596000</t>
+          <t>358091000</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2018,12 +2018,12 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>US912828J272</t>
+          <t>US91282CDZ14</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -2036,12 +2036,12 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>912828J27</t>
+          <t>91282CDZ1</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>BVVT3Q9</t>
+          <t>BM96PT6</t>
         </is>
       </c>
     </row>
@@ -2063,7 +2063,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>340074547</t>
+          <t>365797664</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.500</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>358091000</t>
+          <t>382596000</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2098,12 +2098,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>US91282CDZ14</t>
+          <t>US912828J272</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -2116,12 +2116,12 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>91282CDZ1</t>
+          <t>912828J27</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>BM96PT6</t>
+          <t>BVVT3Q9</t>
         </is>
       </c>
     </row>
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>313269740</t>
+          <t>96376028</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>3.875</t>
+          <t>2.625</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>319663000</t>
+          <t>100196000</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2658,12 +2658,12 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>US91282CGU99</t>
+          <t>US9128284F40</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2676,12 +2676,12 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>91282CGU9</t>
+          <t>9128284F4</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>BRPT259</t>
+          <t>BYZNTH1</t>
         </is>
       </c>
     </row>
@@ -2703,7 +2703,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2713,12 +2713,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>96376028</t>
+          <t>313269740</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2.625</t>
+          <t>3.875</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>100196000</t>
+          <t>319663000</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2738,12 +2738,12 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>US9128284F40</t>
+          <t>US91282CGU99</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -2756,12 +2756,12 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>9128284F4</t>
+          <t>91282CGU9</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>BYZNTH1</t>
+          <t>BRPT259</t>
         </is>
       </c>
     </row>
@@ -2943,7 +2943,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2953,12 +2953,12 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>299967337</t>
+          <t>181091861</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.375</t>
+          <t>2.875</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>323633000</t>
+          <t>187812000</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2978,12 +2978,12 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>US912828ZL77</t>
+          <t>US9128284M90</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -2996,12 +2996,12 @@
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>912828ZL7</t>
+          <t>9128284M9</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>BMWWQN2</t>
+          <t>BG44Z71</t>
         </is>
       </c>
     </row>
@@ -3023,7 +3023,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3033,12 +3033,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>181091861</t>
+          <t>299967337</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2.875</t>
+          <t>0.375</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>187812000</t>
+          <t>323633000</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3058,12 +3058,12 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>US9128284M90</t>
+          <t>US912828ZL77</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3076,12 +3076,12 @@
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>9128284M9</t>
+          <t>912828ZL7</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>BG44Z71</t>
+          <t>BMWWQN2</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3113,12 +3113,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>354908847</t>
+          <t>428360451</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2.125</t>
+          <t>2.750</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -3128,7 +3128,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>372730000</t>
+          <t>445339000</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -3138,12 +3138,12 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>US912828XB14</t>
+          <t>US91282CEQ06</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -3156,12 +3156,12 @@
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>912828XB1</t>
+          <t>91282CEQ0</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>BXC4FY9</t>
+          <t>BPSLLX9</t>
         </is>
       </c>
     </row>
@@ -3183,7 +3183,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3193,12 +3193,12 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>428360451</t>
+          <t>354908847</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2.750</t>
+          <t>2.125</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>445339000</t>
+          <t>372730000</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3218,12 +3218,12 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>US91282CEQ06</t>
+          <t>US912828XB14</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
@@ -3236,12 +3236,12 @@
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>91282CEQ0</t>
+          <t>912828XB1</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>BPSLLX9</t>
+          <t>BXC4FY9</t>
         </is>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3273,12 +3273,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>266877281</t>
+          <t>173101346</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>2.875</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -3288,7 +3288,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>289494000</t>
+          <t>179758000</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3298,12 +3298,12 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>US912828ZT04</t>
+          <t>US9128284R87</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -3316,12 +3316,12 @@
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>912828ZT0</t>
+          <t>9128284R8</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>BLB6SL0</t>
+          <t>BD5J3M5</t>
         </is>
       </c>
     </row>
@@ -3343,7 +3343,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3353,12 +3353,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>173101346</t>
+          <t>266877281</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2.875</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>179758000</t>
+          <t>289494000</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3378,12 +3378,12 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>US9128284R87</t>
+          <t>US912828ZT04</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3396,12 +3396,12 @@
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>9128284R8</t>
+          <t>912828ZT0</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>BD5J3M5</t>
+          <t>BLB6SL0</t>
         </is>
       </c>
     </row>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3673,12 +3673,12 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>93684480</t>
+          <t>313047451</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2.750</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>97588000</t>
+          <t>340674000</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3698,12 +3698,12 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>US912828XZ81</t>
+          <t>US912828ZW33</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -3716,12 +3716,12 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>912828XZ8</t>
+          <t>912828ZW3</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>BD9MJH7</t>
+          <t>BL5BXQ1</t>
         </is>
       </c>
     </row>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3753,12 +3753,12 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>313047451</t>
+          <t>93684480</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>2.750</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>340674000</t>
+          <t>97588000</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3778,12 +3778,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>US912828ZW33</t>
+          <t>US912828XZ81</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -3796,12 +3796,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>912828ZW3</t>
+          <t>912828XZ8</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>BL5BXQ1</t>
+          <t>BD9MJH7</t>
         </is>
       </c>
     </row>
@@ -3983,7 +3983,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3993,12 +3993,12 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>155747092</t>
+          <t>288265103</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>2.875</t>
+          <t>4.750</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -4008,7 +4008,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>162131000</t>
+          <t>290215000</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -4018,12 +4018,12 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>US912828Y792</t>
+          <t>US91282CHN48</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -4036,12 +4036,12 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>912828Y79</t>
+          <t>91282CHN4</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>BFNQWY7</t>
+          <t>BNTDWY8</t>
         </is>
       </c>
     </row>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4073,12 +4073,12 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>288265103</t>
+          <t>155747092</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>4.750</t>
+          <t>2.875</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>290215000</t>
+          <t>162131000</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -4098,12 +4098,12 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>US91282CHN48</t>
+          <t>US912828Y792</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -4116,12 +4116,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>91282CHN4</t>
+          <t>912828Y79</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>BNTDWY8</t>
+          <t>BFNQWY7</t>
         </is>
       </c>
     </row>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4153,12 +4153,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>312741076</t>
+          <t>376122714</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>3.125</t>
+          <t>2.000</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>324189000</t>
+          <t>398211000</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -4178,12 +4178,12 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>US91282CFE66</t>
+          <t>US912828K742</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.42</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -4196,12 +4196,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>91282CFE6</t>
+          <t>912828K74</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>BQHM4C0</t>
+          <t>BYS2RD7</t>
         </is>
       </c>
     </row>
@@ -4223,7 +4223,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -4233,12 +4233,12 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>376122714</t>
+          <t>312741076</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2.000</t>
+          <t>3.125</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -4248,7 +4248,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>398211000</t>
+          <t>324189000</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -4258,12 +4258,12 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>US912828K742</t>
+          <t>US91282CFE66</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -4276,12 +4276,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>912828K74</t>
+          <t>91282CFE6</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>BYS2RD7</t>
+          <t>BQHM4C0</t>
         </is>
       </c>
     </row>
@@ -4463,7 +4463,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4473,12 +4473,12 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>143827951</t>
+          <t>309979556</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2.750</t>
+          <t>0.250</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -4488,7 +4488,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>150261000</t>
+          <t>339820000</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -4498,12 +4498,12 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>US9128284Z04</t>
+          <t>US91282CAJ09</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -4516,12 +4516,12 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>9128284Z0</t>
+          <t>91282CAJ0</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>BG0MNF3</t>
+          <t>BMV9TX5</t>
         </is>
       </c>
     </row>
@@ -4543,7 +4543,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4553,12 +4553,12 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>309979556</t>
+          <t>143827951</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>2.750</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>339820000</t>
+          <t>150261000</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -4578,12 +4578,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>US91282CAJ09</t>
+          <t>US9128284Z04</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -4596,12 +4596,12 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>91282CAJ0</t>
+          <t>9128284Z0</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>BMV9TX5</t>
+          <t>BG0MNF3</t>
         </is>
       </c>
     </row>
@@ -4783,7 +4783,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>UST NOTE</t>
+          <t>US TREASURY N/B</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4793,12 +4793,12 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>163836000</t>
+          <t>332317160</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>3.000</t>
+          <t>5.000</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>170496000</t>
+          <t>332629000</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4818,12 +4818,12 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>US9128285C00</t>
+          <t>US91282CJB81</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -4836,12 +4836,12 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>9128285C0</t>
+          <t>91282CJB8</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>BFM0VV0</t>
+          <t>BMX7M61</t>
         </is>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>US TREASURY N/B</t>
+          <t>UST NOTE</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4873,12 +4873,12 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>332317160</t>
+          <t>163836000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>5.000</t>
+          <t>3.000</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>332629000</t>
+          <t>170496000</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -4898,12 +4898,12 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>US91282CJB81</t>
+          <t>US9128285C00</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
@@ -4916,12 +4916,12 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>91282CJB8</t>
+          <t>9128285C0</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>BMX7M61</t>
+          <t>BFM0VV0</t>
         </is>
       </c>
     </row>
